--- a/analysis/Flow Meter Calibration/FlowTest1.xlsx
+++ b/analysis/Flow Meter Calibration/FlowTest1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam-n-Abbs\Documents\GitHub\liquid-engine-test-stand\analysis\Flow Meter Calibration\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jntil\Documents\Git_Repos\liquid-engine-test-stand\analysis\Flow Meter Calibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0765EC84-8FE0-415E-B699-433017A87A10}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C5D9FE1-1E1B-4604-8F7C-9ED07E8AD780}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="15180" windowHeight="9345"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="15180" windowHeight="9345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Simple Data" sheetId="1" r:id="rId1"/>
@@ -18,14 +18,6 @@
     <sheet name="Interactive Bar Graph" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="92512"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -220,7 +212,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -461,6 +453,2266 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.5994346860487807E-3"/>
+                  <c:y val="-0.25569715324046033"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Simple Data'!$B$101:$B$411</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="311"/>
+                <c:pt idx="0">
+                  <c:v>9.9296880000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.027340000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.121090000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.23047</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.32813</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.42188</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.51563</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.625</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.71875</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.82813</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.92188</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.01563</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11.125</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11.214840000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11.32422</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11.41797</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11.527340000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11.621090000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11.71875</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11.82813</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>11.92188</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12.023440000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>12.117190000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>12.226559999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12.320309999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12.429690000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>12.523440000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>12.632809999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>12.714840000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>12.82422</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>12.91797</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>13.027340000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>13.121090000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>13.214840000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>13.32422</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>13.41797</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>13.527340000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>13.621090000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>13.71875</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>13.82813</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>13.92578</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>14.01953</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>14.128909999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>14.222659999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>14.320309999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>14.429690000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>14.523440000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>14.617190000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>14.71875</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>14.82813</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>14.92188</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>15.03125</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>15.125</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>15.21875</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>15.32813</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>15.42188</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>15.51563</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>15.625</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>15.726559999999999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>15.820309999999999</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>15.92578</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>16.01953</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>16.11328</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>16.222660000000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>16.320309999999999</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>16.429690000000001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>16.523440000000001</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>16.632809999999999</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>16.73047</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>16.828130000000002</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>16.921880000000002</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>17.03125</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>17.121089999999999</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>17.21875</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>17.328130000000002</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>17.421880000000002</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>17.515630000000002</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>17.625</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>17.71875</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>17.828130000000002</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>17.921880000000002</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>18.015630000000002</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>18.125</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>18.222660000000001</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>18.33203</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>18.42578</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>18.51953</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>18.628910000000001</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>18.726559999999999</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>18.820309999999999</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>18.929690000000001</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>19.023440000000001</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>19.117190000000001</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>19.23047</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>19.32422</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>19.41797</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>19.527339999999999</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>19.621089999999999</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>19.71875</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>19.828130000000002</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>19.921880000000002</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>20.03125</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>20.125</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>20.21875</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>20.33203</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>20.421880000000002</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>20.51953</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>20.625</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>20.71875</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>20.816410000000001</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>20.92578</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>21.023440000000001</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>21.117190000000001</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>21.234380000000002</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>21.32422</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>21.41797</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>21.51953</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>21.628910000000001</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>21.71875</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>21.828130000000002</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>21.921880000000002</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>22.015630000000002</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>22.125</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>22.21875</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>22.328130000000002</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>22.421880000000002</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>22.515630000000002</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>22.625</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>22.722660000000001</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>22.83203</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>22.921880000000002</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>23.01953</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>23.125</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>23.226559999999999</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>23.320309999999999</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>23.429690000000001</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>23.523440000000001</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>23.628910000000001</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>23.73047</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>23.82422</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>23.91797</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>24.027339999999999</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>24.121089999999999</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>24.23047</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>24.328130000000002</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>24.421880000000002</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>24.53125</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>24.625</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>24.71875</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>24.828130000000002</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>24.921880000000002</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>25.03125</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>25.125</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>25.214839999999999</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>25.32422</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>25.41797</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>25.527339999999999</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>25.621089999999999</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>25.71875</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>25.828130000000002</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>25.929690000000001</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>26.027339999999999</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>26.121089999999999</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>26.214839999999999</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>26.32422</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>26.41797</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>26.527339999999999</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>26.621089999999999</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>26.71875</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>26.828130000000002</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>26.921880000000002</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>27.03125</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>27.125</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>27.21875</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>27.328130000000002</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>27.41797</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>27.53125</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>27.621089999999999</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>27.71875</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>27.828130000000002</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>27.921880000000002</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>28.03125</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>28.125</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>28.21875</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>28.316410000000001</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>28.42578</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>28.51953</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>28.628910000000001</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>28.71875</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>28.828130000000002</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>28.921880000000002</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>29.03125</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>29.125</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>29.21875</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>29.328130000000002</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>29.421880000000002</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>29.51953</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>29.625</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>29.734380000000002</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>29.828130000000002</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>29.91797</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>30.027339999999999</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>30.121089999999999</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>30.23047</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>30.316410000000001</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>30.421880000000002</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>30.51953</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>30.625</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>30.726559999999999</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>30.820309999999999</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>30.929690000000001</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>31.023440000000001</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>31.132809999999999</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>31.226559999999999</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>31.320309999999999</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>31.429690000000001</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>31.523440000000001</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>31.617190000000001</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>31.714839999999999</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>31.82422</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>31.91797</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>32.027340000000002</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>32.121090000000002</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>32.214840000000002</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>32.332030000000003</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>32.421880000000002</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>32.519530000000003</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>32.625</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>32.726559999999999</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>32.820309999999999</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>32.925780000000003</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>33.023440000000001</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>33.128909999999998</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>33.230469999999997</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>33.324219999999997</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>33.417969999999997</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>33.527340000000002</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>33.621090000000002</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>33.71875</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>33.828130000000002</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>33.921880000000002</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>34.03125</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>34.125</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>34.21875</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>34.328130000000002</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>34.421880000000002</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>34.53125</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>34.625</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>34.71875</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>34.820309999999999</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>34.929690000000001</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>35.023440000000001</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>35.117190000000001</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>35.226559999999999</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>35.320309999999999</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>35.414059999999999</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>35.523440000000001</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>35.617190000000001</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>35.730469999999997</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>35.820309999999999</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>35.929690000000001</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>36.027340000000002</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>36.121090000000002</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>36.234380000000002</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>36.324219999999997</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>36.417969999999997</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>36.527340000000002</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>36.621090000000002</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>36.71875</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>36.828130000000002</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>36.921880000000002</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>37.03125</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>37.125</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>37.222659999999998</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>37.316409999999998</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>37.425780000000003</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>37.519530000000003</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>37.628909999999998</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>37.726559999999999</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>37.820309999999999</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>37.929690000000001</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>38.023440000000001</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>38.132809999999999</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>38.226559999999999</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>38.324219999999997</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>38.417969999999997</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>38.527340000000002</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>38.621090000000002</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>38.71875</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>38.828130000000002</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>38.917969999999997</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>39.03125</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>39.125</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>39.230469999999997</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>39.324219999999997</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>39.417969999999997</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>39.527340000000002</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>39.621090000000002</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>39.71875</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>39.828130000000002</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>39.921880000000002</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>40.03125</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>40.125</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>40.222659999999998</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>40.332030000000003</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>40.425780000000003</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>40.519530000000003</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>40.628909999999998</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>40.730469999999997</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>40.820309999999999</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>40.914059999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Simple Data'!$C$101:$C$411</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="311"/>
+                <c:pt idx="0">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>309</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>313</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>314</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>314</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>314</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>314</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>332</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>313</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>314</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>327</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>313</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>326</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>314</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A40E-4FEA-B839-47E4ABF2D3FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="304356912"/>
+        <c:axId val="304357896"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="304356912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="304357896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="304357896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="304356912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -745,7 +2997,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1078,7 +3330,604 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>361949</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>438149</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23ACE91A-B848-41F1-B299-7C7D197AB593}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1121,7 +3970,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1545,19 +4394,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A288" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.85546875" style="15" customWidth="1"/>
     <col min="2" max="2" width="15" style="16" customWidth="1"/>
-    <col min="3" max="3" width="9" style="17" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="17" customWidth="1"/>
     <col min="4" max="6" width="9.140625" style="17"/>
     <col min="7" max="10" width="9.140625" style="1"/>
   </cols>
@@ -14594,16 +17443,17 @@
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14648,7 +17498,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E8"/>
   <sheetViews>
